--- a/viettel_ns/Report_ExcelFrom/VonDauTu/rpt_BaoCaoNhucauKeHoachChiQuy.xlsx
+++ b/viettel_ns/Report_ExcelFrom/VonDauTu/rpt_BaoCaoNhucauKeHoachChiQuy.xlsx
@@ -384,7 +384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -423,6 +423,17 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -463,18 +474,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -757,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39:C40"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A22" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39:G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -780,74 +779,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="J1" s="20" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="J1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="J2" s="21" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="J2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
     </row>
     <row r="5" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
       <c r="N5" s="6"/>
     </row>
     <row r="7" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -892,57 +891,57 @@
       <c r="B14" s="10"/>
     </row>
     <row r="16" spans="1:15" s="2" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="23" t="s">
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="L16" s="23" t="s">
+      <c r="L16" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="M16" s="23" t="s">
+      <c r="M16" s="28" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="2" customFormat="1" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="26" t="s">
+      <c r="A17" s="29"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="27"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="26" t="s">
+      <c r="E17" s="32"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
     </row>
     <row r="18" spans="1:13" s="2" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="25"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="11" t="s">
         <v>8</v>
       </c>
@@ -964,9 +963,9 @@
       <c r="J18" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
     </row>
     <row r="19" spans="1:13" s="4" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
@@ -1086,280 +1085,262 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="32" t="s">
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="32" t="s">
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
     </row>
     <row r="27" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32" t="s">
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32" t="s">
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
     </row>
     <row r="28" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
     </row>
     <row r="29" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
     </row>
     <row r="30" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="36" t="s">
+      <c r="A30" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="32" t="s">
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32" t="s">
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
     </row>
     <row r="31" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
     </row>
     <row r="32" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="34"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
     </row>
     <row r="33" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
     </row>
     <row r="34" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="37"/>
-      <c r="B34" s="32" t="s">
+      <c r="A34" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32" t="s">
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="37"/>
-      <c r="B35" s="32" t="s">
+      <c r="A35" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32" t="s">
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
     </row>
     <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="37"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
     </row>
     <row r="37" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="34"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
     </row>
     <row r="38" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="34"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="37"/>
-      <c r="B39" s="32" t="s">
+      <c r="A39" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32" t="s">
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="37"/>
-      <c r="M39" s="37"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="37"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="37"/>
-      <c r="M40" s="37"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="D39:G40"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J36"/>
-    <mergeCell ref="H39:J40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C36"/>
-    <mergeCell ref="B39:C40"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="D35:G36"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="H27:M27"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="J2:M2"/>
@@ -1376,6 +1357,24 @@
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="C16:C18"/>
     <mergeCell ref="D16:J16"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="D39:G40"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="D35:G36"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C36"/>
+    <mergeCell ref="A39:C40"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H35:M36"/>
+    <mergeCell ref="H39:M40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="56" orientation="landscape" r:id="rId1"/>
